--- a/data/trades.xlsx
+++ b/data/trades.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45958.30220982287</v>
+        <v>45958.30220982639</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -544,6 +544,52 @@
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45958.31703762141</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WLD/USDT:USDT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="F3" t="n">
+        <v>99.12593251498335</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>opened</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2015a608-08ff-41f9-ac20-b86b8fc79ffc</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
